--- a/SPPSApi/Doc/Template/FS0719.xlsx
+++ b/SPPSApi/Doc/Template/FS0719.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\李佳奕\localSPPS\API\spps20210111\spps\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E99C76-D7C0-4F3D-90EE-C6F55CC61BEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB9B965-F455-484C-BE0D-4D8B2211D29C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,49 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包材品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>GPS品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订购数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纳入预定日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预订纳入便次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳入单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -405,28 +377,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,27 +414,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0719.xlsx
+++ b/SPPSApi/Doc/Template/FS0719.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\李佳奕\localSPPS\API\spps20210111\spps\SPPSApi\Doc\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\补给项目\API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB9B965-F455-484C-BE0D-4D8B2211D29C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>GPS品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,26 +38,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预订纳入便次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用负担部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包装厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,11 +363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -388,12 +375,11 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,15 +392,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SPPSApi/Doc/Template/FS0719.xlsx
+++ b/SPPSApi/Doc/Template/FS0719.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>GPS品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>包装厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -379,17 +383,20 @@
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0719.xlsx
+++ b/SPPSApi/Doc/Template/FS0719.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>GPS品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,15 +34,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纳入预定日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包装厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入预定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入便次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -379,13 +383,13 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -394,10 +398,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
